--- a/각_차시별_학습정리_길기상.xlsx
+++ b/각_차시별_학습정리_길기상.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="12" windowWidth="26016" windowHeight="12324" activeTab="2"/>
+    <workbookView xWindow="36" yWindow="144" windowWidth="26016" windowHeight="12324" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1차시" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Upbit API를 활용하여 실시간 비트코인 가격 데이터를 수집할 수 있다.</t>
   </si>
   <si>
-    <t>tkinter를 사용하여 사용자 친화적인 GUI 인터페이스를 구현할 수 있다.</t>
-  </si>
-  <si>
     <t>파일 기반 로깅 시스템을 구축하여 알림 내역을 영구 저장할 수 있다.</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Upbit API의 공개 엔드포인트를 사용하여 실시간 가격 정보를 조회하고, 설정된 조건에 따라 알림을 생성할 수 있다.</t>
   </si>
   <si>
-    <t>tkinter를 활용한 GUI 구현으로 사용자가 모니터링을 시작/중지하고 실시간 상태를 확인할 수 있는 인터페이스를 제공할 수 있다.</t>
-  </si>
-  <si>
     <t>파일 기반 로깅을 통해 알림 메시지를 텍스트 파일에 저장하고, 프로그램 재시작 후에도 이전 알림 내역을 확인할 수 있다.</t>
   </si>
   <si>
@@ -98,463 +92,477 @@
     <t>CoinGecko API의 종합적인 오류 처리(재시도, 타임아웃, Rate limit 관리)를 구현하여 안정적인 데이터 수집이 가능하다.</t>
   </si>
   <si>
+    <t>백그라운드 스레드에서 주기적으로 데이터를 수집하고, matplotlib animation으로 실시간 차트를 갱신하는 시스템을 구축할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략에서 돌파선은 전일 고가와 저가의 차이를 이용하여 계산한다.</t>
+  </si>
+  <si>
+    <t>돌파선은 전일 고가 + (전일 고가 - 전일 저가) × K값으로 계산되며, 변동폭을 기반으로 합니다.</t>
+  </si>
+  <si>
+    <t>이동평균 크로스오버 전략에서 단기 이동평균선이 장기 이동평균선을 아래로 넘으면 매수 신호가 발생한다.</t>
+  </si>
+  <si>
+    <t>단기선이 장기선을 아래로 넘으면 데드 크로스로 매도 신호입니다. 위로 넘을 때가 매수 신호(골든 크로스)입니다.</t>
+  </si>
+  <si>
+    <t>다중 거래소 API를 통합하여 실시간 암호화폐 데이터를 수집하고 기술적 지표를 계산할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략과 이동평균 크로스오버 전략의 핵심 로직을 이해하고 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>백테스팅을 통해 전략의 성과를 분석하고 리스크 관리 방법을 적용할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략은 전일 변동폭을 기반으로 돌파선을 계산하고, 돌파 시 진입하여 손절/익절로 청산하는 추세 추종 전략이다.</t>
+  </si>
+  <si>
+    <t>백테스팅을 통해 전략의 수익률, 승률, 최대 낙폭, 샤프 비율 등을 분석하고, 포지션 크기 제한과 손절/익절 로직으로 리스크를 관리할 수 있다.</t>
+  </si>
+  <si>
+    <t>GitHub Copilot은 시장에서 가장 널리 사용되는 AI 코딩 도구이다.</t>
+  </si>
+  <si>
+    <t>GitHub Copilot은 Microsoft의 지원과 GitHub 생태계 통합으로 시장 리더십을 보유하고 있습니다.</t>
+  </si>
+  <si>
+    <t>AI 코딩 도구 시장은 2024년 기준 약 6조원 규모이며 지속적으로 성장하고 있다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. AI 코딩 도구 시장은 2024년 $6.15B 규모이며, 2034년까지 연평균 26.8% 성장이 예상됩니다.</t>
+  </si>
+  <si>
+    <t>AI 코딩 도구 시장의 주요 플레이어와 각 도구의 특징을 비교 분석할 수 있다.</t>
+  </si>
+  <si>
+    <t>각 AI 코딩 도구의 강점과 약점을 파악하여 프로젝트에 적합한 도구를 선택할 수 있다.</t>
+  </si>
+  <si>
+    <t>AI 코딩 도구의 시장 동향과 미래 전망을 이해할 수 있다.</t>
+  </si>
+  <si>
+    <t>GitHub Copilot, Cursor, Claude Code, CodeWhisperer 등 주요 AI 코딩 도구들은 각각 다른 강점을 가지고 있으며, 프로젝트 특성에 맞게 선택해야 한다.</t>
+  </si>
+  <si>
+    <t>AI 코딩 도구 시장은 빠르게 성장하고 있으며, 개발 생산성 향상과 코드 품질 개선에 큰 기여를 하고 있다.</t>
+  </si>
+  <si>
+    <t>AI 코딩 도구를 효과적으로 활용하려면 각 도구의 특징과 제한사항을 이해하고, 프로젝트 요구사항에 맞는 도구를 선택하는 것이 중요하다.</t>
+  </si>
+  <si>
+    <t>변동성 필터를 사용하면 가짜 돌파 신호를 줄일 수 있다.</t>
+  </si>
+  <si>
+    <t>전일 변동폭이 최근 평균 대비 큰 날만 거래하거나 ATR 상위 분위수를 사용하면 가짜 돌파를 필터링할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>트레일링 스탑을 사용하면 수익이 나는 포지션의 손절선을 동적으로 조정할 수 없다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 트레일링 스탑은 가격이 유리한 방향으로 움직일 때 손절선을 따라가며 수익을 보호합니다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략의 핵심 개념과 돌파선 계산 방법을 이해한다.</t>
+  </si>
+  <si>
+    <t>가짜 돌파를 줄이기 위한 필터링 기법(변동성, 거래량, 시간대 필터)을 적용할 수 있다.</t>
+  </si>
+  <si>
+    <t>리스크 관리 원칙(포지션 사이징, 손절/익절, 트레일링 스탑)을 전략에 통합할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략은 전일 변동폭(R)을 기반으로 돌파선을 계산하고, 돌파 시 추세 초입에 진입하는 추세 추종형 전략이다.</t>
+  </si>
+  <si>
+    <t>변동성 필터, 시간대 필터, 확인 캔들 조건 등을 적용하여 가짜 돌파 신호를 줄이고 승률을 향상시킬 수 있다.</t>
+  </si>
+  <si>
+    <t>포지션 사이징, 손절/익절 비율, 트레일링 스탑 등 리스크 관리 기법을 전략에 통합하여 안정적인 수익을 추구할 수 있다.</t>
+  </si>
+  <si>
+    <t>업비트 API는 JWT 토큰 기반 인증을 사용한다.</t>
+  </si>
+  <si>
+    <t>업비트의 Exchange API는 JWT 토큰을 사용하여 인증하며, access_key와 secret_key가 필요합니다.</t>
+  </si>
+  <si>
+    <t>업비트 API의 Rate Limit은 초당 10회 요청으로 제한되지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 업비트 API는 초당 10회 요청 제한이 있으며, 이를 초과하면 429 에러가 발생합니다.</t>
+  </si>
+  <si>
+    <t>업비트 API의 기본 구조와 REST API, WebSocket 연동 방식을 이해한다.</t>
+  </si>
+  <si>
+    <t>시장 데이터 조회 API와 계좌/주문 관리 API를 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>JWT 토큰 기반 인증을 구현하고 API 호출 시 오류 처리를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>업비트 API는 Quotation API(공개)와 Exchange API(인증 필요)로 구분되며, 각각 시세 조회와 거래/계좌 관리를 담당한다.</t>
+  </si>
+  <si>
+    <t>JWT 토큰을 사용한 인증 방식으로 계좌 조회, 주문 생성/조회/취소 등의 거래 기능을 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>API Rate Limit을 준수하고 네트워크 오류에 대한 재시도 로직을 구현하여 안정적인 API 연동이 가능하다.</t>
+  </si>
+  <si>
+    <t>백테스팅은 과거 데이터를 사용하여 전략의 성과를 검증하는 방법이다.</t>
+  </si>
+  <si>
+    <t>백테스팅은 실제 거래 전에 과거 데이터로 전략을 테스트하여 수익률, 승률 등을 분석합니다.</t>
+  </si>
+  <si>
+    <t>과최적화(Overfitting)는 과거 데이터에만 잘 맞는 전략을 만드는 것을 의미하지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 과최적화된 전략은 과거 데이터에서는 좋은 성과를 보이지만, 미래 데이터에서는 성과가 떨어질 수 있습니다.</t>
+  </si>
+  <si>
+    <t>백테스트 시스템의 핵심 구성 요소(데이터 로딩, 전략 실행, 성과 분석)를 이해한다.</t>
+  </si>
+  <si>
+    <t>데이터 전처리 및 품질 검증 방법을 학습한다.</t>
+  </si>
+  <si>
+    <t>성과 지표 계산 및 결과 시각화를 통해 전략을 평가할 수 있다.</t>
+  </si>
+  <si>
+    <t>백테스트 시스템은 데이터 로딩, 전략 실행, 성과 분석, 결과 시각화의 4가지 핵심 구성 요소로 이루어져 있다.</t>
+  </si>
+  <si>
+    <t>백테스트 시 거래 비용, 슬리피지, 과최적화 등을 고려하여 현실적인 성과를 평가해야 한다.</t>
+  </si>
+  <si>
+    <t>다양한 시장 상황에서 백테스트를 수행하고, 롤링 검증을 통해 전략의 안정성을 검증할 수 있다.</t>
+  </si>
+  <si>
+    <t>APScheduler를 사용하면 Python에서 정확한 시간 기반 작업 스케줄링이 가능하다.</t>
+  </si>
+  <si>
+    <t>APScheduler는 Cron 표현식과 Interval 트리거를 지원하여 정확한 시간에 작업을 실행할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>작업 간 의존성을 관리하려면 선행 작업의 완료 상태를 추적해야 하지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 의존성 관리를 위해 완료 상태를 파일에 저장하고, 의존 작업 실행 전에 확인하는 방식이 필요합니다.</t>
+  </si>
+  <si>
+    <t>APScheduler를 활용하여 정확한 시간 기반 작업 스케줄링 시스템을 구축할 수 있다.</t>
+  </si>
+  <si>
+    <t>우선순위 기반 작업 관리 시스템을 구현하여 중요한 작업을 우선 처리할 수 있다.</t>
+  </si>
+  <si>
+    <t>작업 간 의존성 관리 및 동적 스케줄 변경 기능을 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>APScheduler의 Cron과 Interval 트리거를 사용하여 매일 특정 시간, 주기적으로 실행되는 작업을 스케줄링할 수 있다.</t>
+  </si>
+  <si>
+    <t>PriorityQueue와 워커 스레드를 결합하여 우선순위 기반 작업 디스패처를 구현하고, 실패 시 지수 백오프로 재시도할 수 있다.</t>
+  </si>
+  <si>
+    <t>YAML 설정 파일을 감시하여 동적으로 스케줄을 변경하고, 작업 완료 상태 파일을 통해 의존성 관리를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>텔레그램 봇은 BotFather를 통해 토큰을 발급받을 수 있다.</t>
+  </si>
+  <si>
+    <t>BotFather(@BotFather)는 텔레그램의 공식 봇으로, 새로운 봇을 생성하고 토큰을 발급받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>인라인 키보드를 사용하면 사용자가 버튼을 클릭하여 명령을 실행할 수 없다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 인라인 키보드는 텔레그램 봇에서 버튼 형태의 인터페이스를 제공하여 사용자 경험을 향상시킵니다.</t>
+  </si>
+  <si>
+    <t>텔레그램 Bot API를 활용하여 자동매매 시스템의 알림 및 제어 인터페이스를 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>사용자 설정 관리 시스템을 구축하여 개인화된 알림 및 기능을 제공할 수 있다.</t>
+  </si>
+  <si>
+    <t>모듈화된 봇 아키텍처를 설계하여 확장 가능한 텔레그램 봇을 개발할 수 있다.</t>
+  </si>
+  <si>
+    <t>텔레그램 봇을 통해 거래 내역 조회, 수익률 분석, 시스템 상태 확인 등 자동매매 시스템의 원격 모니터링 및 제어가 가능하다.</t>
+  </si>
+  <si>
+    <t>사용자별 설정 파일을 관리하여 알림 유형, 거래 제어 권한 등을 개인화할 수 있다.</t>
+  </si>
+  <si>
+    <t>핸들러, 템플릿, 설정 관리자 등 모듈화된 구조로 봇을 설계하면 기능 추가와 유지보수가 용이하다.</t>
+  </si>
+  <si>
+    <t>API 인증 오류는 API 키 만료나 권한 부족으로 발생할 수 있다.</t>
+  </si>
+  <si>
+    <t>Invalid API key 오류는 키 만료, 권한 설정 오류, 키 형식 오류 등으로 발생합니다.</t>
+  </si>
+  <si>
+    <t>오류 패턴을 분류하면 발생 빈도와 심각도에 따라 대응 전략을 수립할 수 없다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 오류를 발생 빈도, 심각도, 해결 난이도, 예방 가능성으로 분류하여 효율적인 대응 체계를 구축할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>자동매매 시스템에서 발생할 수 있는 주요 오류 유형을 분석하고 분류할 수 있다.</t>
+  </si>
+  <si>
+    <t>각 오류 유형별 해결 방법과 예방 방안을 수립할 수 있다.</t>
+  </si>
+  <si>
+    <t>오류 패턴별 최적의 대응 전략을 설계할 수 있다.</t>
+  </si>
+  <si>
+    <t>API 인증 오류, 네트워크 연결 오류, 데이터 오류, 시스템 리소스 오류, 로직 오류 등 5가지 주요 오류 유형을 체계적으로 분석할 수 있다.</t>
+  </si>
+  <si>
+    <t>오류를 발생 빈도, 심각도, 해결 난이도, 예방 가능성으로 분류하여 우선순위를 정하고 대응 전략을 수립할 수 있다.</t>
+  </si>
+  <si>
+    <t>자동 재시도, 로깅, 모니터링, 입력 검증 등 예방적 접근을 통해 시스템의 복원력을 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>샤프 비율은 수익률을 변동성으로 나눈 값으로 리스크 조정 수익률을 나타낸다.</t>
+  </si>
+  <si>
+    <t>샤프 비율 = (수익률 - 무위험 수익률) / 변동성으로 계산되며, 높을수록 리스크 대비 수익이 좋습니다.</t>
+  </si>
+  <si>
+    <t>VaR(Value at Risk)는 특정 신뢰수준에서 예상되는 최대 손실을 의미하지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. VaR은 예를 들어 95% 신뢰수준에서 하루 최대 손실이 5%라는 식으로 표현됩니다.</t>
+  </si>
+  <si>
+    <t>pandas와 numpy를 활용하여 거래 데이터를 효율적으로 처리하고 분석할 수 있다.</t>
+  </si>
+  <si>
+    <t>수익률, 리스크, 거래 지표 등 다양한 성과 지표를 계산할 수 있다.</t>
+  </si>
+  <si>
+    <t>통계 분석과 시각화를 통해 거래 전략의 성과를 종합적으로 평가할 수 있다.</t>
+  </si>
+  <si>
+    <t>SQLite 데이터베이스에서 거래 데이터를 로드하고 pandas로 전처리하여 코인별, 전략별, 시간대별 세분화된 분석이 가능하다.</t>
+  </si>
+  <si>
+    <t>수익률 지표(총 수익률, 연환산 수익률), 리스크 지표(MDD, 샤프 비율, VaR), 거래 지표(승률, 프로핏 팩터) 등을 종합적으로 계산할 수 있다.</t>
+  </si>
+  <si>
+    <t>파라미터 최적화는 백테스트를 통해 최적의 전략 파라미터를 찾는 과정이다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략의 K값, 이동평균 기간, 손절/익절 비율 등을 최적화하여 성과를 향상시킬 수 있습니다.</t>
+  </si>
+  <si>
+    <t>시장 상황별 최적화는 변동성 구간, 트렌드/사이드웨이스, 시간대별로 다른 파라미터를 사용하는 방법이다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 시장 상황에 따라 적응적으로 전략 파라미터를 조정하면 더 나은 성과를 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>전략 파라미터 최적화 방법을 이해하고 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>멀티 전략 조합 및 가중치 최적화 방법을 학습한다.</t>
+  </si>
+  <si>
+    <t>시장 상황별 적응형 전략 최적화 시스템을 설계할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 돌파 전략의 K값, 이동평균 기간, 손절/익절 비율 등을 그리드 서치나 베이지안 최적화로 찾아 성과를 향상시킬 수 있다.</t>
+  </si>
+  <si>
+    <t>여러 전략을 조합하고 가중치를 최적화하여 리스크를 분산시키고, 동적 전략 전환으로 시장 상황에 맞는 전략을 선택할 수 있다.</t>
+  </si>
+  <si>
+    <t>변동성 구간별, 트렌드/사이드웨이스별, 시간대별로 다른 파라미터를 사용하는 적응형 전략으로 안정적인 수익을 추구할 수 있다.</t>
+  </si>
+  <si>
+    <t>초보 투자자는 보수적인 리스크 관리와 간단한 인터페이스가 필요하다.</t>
+  </si>
+  <si>
+    <t>초보 투자자는 투자 경험이 적어 리스크를 최소화하고 사용하기 쉬운 인터페이스가 중요합니다.</t>
+  </si>
+  <si>
+    <t>모듈화된 아키텍처는 공통 모듈과 사용자별 모듈로 분리하여 확장성을 높인다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 공통 모듈(API, 데이터베이스)과 사용자별 모듈(전략, 인터페이스)을 분리하면 유지보수와 확장이 용이합니다.</t>
+  </si>
+  <si>
+    <t>다양한 사용자 유형별 요구사항을 분석하고 우선순위를 설정할 수 있다.</t>
+  </si>
+  <si>
+    <t>모듈화된 아키텍처를 설계하여 사용자별 맞춤형 기능을 제공할 수 있다.</t>
+  </si>
+  <si>
+    <t>설정 기반 커스터마이징과 기술 수준별 UI/UX를 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>초보/중급/고급 투자자별로 투자 경험, 금액, 리스크 성향, 기술적 지식이 다르므로 맞춤형 요구사항을 분석해야 한다.</t>
+  </si>
+  <si>
+    <t>공통 모듈과 사용자별 모듈로 분리된 모듈화된 구조로 설계하면 확장 가능하고 유지보수가 용이한 시스템을 구축할 수 있다.</t>
+  </si>
+  <si>
+    <t>설정 파일 기반 커스터마이징과 기술 수준별 UI/UX를 제공하여 다양한 사용자 유형에 맞는 자동매매 시스템을 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>Docker를 사용하면 자동매매 시스템을 컨테이너화하여 배포할 수 있다.</t>
+  </si>
+  <si>
+    <t>Docker를 사용하면 환경 의존성 문제를 해결하고 일관된 배포 환경을 구축할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>API 키는 환경 변수나 시크릿 관리 서비스를 통해 안전하게 관리해야 하지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. API 키를 코드에 하드코딩하지 않고 환경 변수나 AWS Secrets Manager 같은 서비스를 사용해야 합니다.</t>
+  </si>
+  <si>
+    <t>자동매매 시스템의 배포 요구사항을 분석하고 적합한 인프라를 선택할 수 있다.</t>
+  </si>
+  <si>
+    <t>Docker를 활용하여 컨테이너화된 시스템을 구축하고 배포할 수 있다.</t>
+  </si>
+  <si>
+    <t>클라우드 플랫폼에서 안전하고 안정적인 운영 환경을 구축할 수 있다.</t>
+  </si>
+  <si>
+    <t>24시간 안정적인 운영을 위해 클라우드 플랫폼(AWS, GCP, Azure)을 선택하고, Docker로 컨테이너화하여 배포할 수 있다.</t>
+  </si>
+  <si>
+    <t>API 키는 환경 변수나 시크릿 관리 서비스를 통해 안전하게 관리하고, 방화벽과 접근 권한 관리를 통해 보안을 강화해야 한다.</t>
+  </si>
+  <si>
+    <t>모니터링, 로그 관리, 자동 백업 시스템을 구축하여 시스템 안정성과 장애 대응 능력을 향상시킬 수 있다.</t>
+  </si>
+  <si>
+    <t>MCP(Model Context Protocol)는 AI 도구와 애플리케이션 간의 표준화된 통신 프로토콜이다.</t>
+  </si>
+  <si>
+    <t>MCP는 AI 도구들이 컨텍스트를 공유하고 상호작용할 수 있게 해주는 프로토콜입니다.</t>
+  </si>
+  <si>
+    <t>Browser MCP를 사용하면 웹 자동화 작업을 수행할 수 없다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. Browser MCP를 통해 웹 페이지 탐색, 데이터 수집, 자동화 작업 등을 수행할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>MCP의 개념과 주요 장점을 이해하고 활용 방법을 학습한다.</t>
+  </si>
+  <si>
+    <t>다양한 MCP 도구(Figma, Notion, Selenium, Browser)를 자동매매 시스템 개발에 활용할 수 있다.</t>
+  </si>
+  <si>
+    <t>MCP를 활용한 개발 워크플로우를 설계하고 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>MCP는 AI 도구와 애플리케이션 간의 표준화된 통신 프로토콜로, 컨텍스트 공유와 상호작용을 용이하게 해준다.</t>
+  </si>
+  <si>
+    <t>Figma MCP로 UI/UX 디자인, Notion MCP로 문서 관리, Browser MCP로 웹 자동화 등을 자동매매 시스템 개발에 활용할 수 있다.</t>
+  </si>
+  <si>
+    <t>MCP를 활용하면 개발 워크플로우를 자동화하고 생산성을 크게 향상시킬 수 있다.</t>
+  </si>
+  <si>
+    <t>포트폴리오 전략은 여러 코인에 분산 투자하여 리스크를 줄이는 방법이다.</t>
+  </si>
+  <si>
+    <t>포트폴리오 전략은 상관관계가 낮은 여러 자산에 분산 투자하여 리스크를 분산시킵니다.</t>
+  </si>
+  <si>
+    <t>적응형 전략 시스템은 시장 상황(상승장/하락장/횡보장)에 따라 다른 전략을 자동으로 적용하지 않는다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 시장 상황을 판단하는 지표를 사용하여 적합한 전략을 자동으로 선택하고 전환합니다.</t>
+  </si>
+  <si>
+    <t>포트폴리오 전략을 통해 리스크를 분산시키면서 수익을 극대화하는 방법을 이해한다.</t>
+  </si>
+  <si>
+    <t>시장 상황별 적응형 전략 시스템을 설계하고 구현할 수 있다.</t>
+  </si>
+  <si>
+    <t>상관관계가 낮은 여러 코인에 분산 투자하고, 전략별 가중치를 최적화하여 포트폴리오 리스크를 관리할 수 있다.</t>
+  </si>
+  <si>
+    <t>시장 상황 판단 지표(이동평균, RSI, 변동성 등)를 사용하여 상승장/하락장/횡보장에 맞는 전략을 자동으로 선택하고 전환할 수 있다.</t>
+  </si>
+  <si>
+    <t>다중 거래소 전략은 여러 거래소에서 동시에 거래하여 아비트라지 기회를 포착한다.</t>
+  </si>
+  <si>
+    <t>거래소 간 가격 차이를 이용한 아비트라지나 유동성 확보를 위해 여러 거래소를 활용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>완전 자동화 시스템은 24시간 365일 사람의 개입 필요로 자동으로 거래를 실행한다.</t>
+  </si>
+  <si>
+    <t>정답은 O입니다. 모니터링, 알림, 자동 복구, 리스크 관리 등 모든 기능이 자동화된 시스템을 구축할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>자동매매 시스템의 확장 전략(다중 거래소, 고급 전략, 완전 자동화)을 이해한다.</t>
+  </si>
+  <si>
+    <t>머신러닝과 딥러닝을 활용한 예측 모델과 복합 전략을 설계할 수 있다.</t>
+  </si>
+  <si>
+    <t>24시간 365일 완전 자동화된 시스템을 구축하고 운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>다중 거래소 연동을 통해 아비트라지 기회를 포착하고, 유동성을 확보하며, 거래소 장애 시 대체 경로를 확보할 수 있다.</t>
+  </si>
+  <si>
+    <t>모니터링, 알림, 자동 복구, 리스크 관리가 완전히 자동화된 24시간 365일 운영 시스템을 구축하여 지속적인 수익 창출이 가능하다.</t>
+  </si>
+  <si>
+    <t>CoinGecko API는 여러 통화로 가격을 조회할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib를 사용하여 사용자 친화적인 GUI 인터페이스를 구현할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>matplotlib을 활용한 차트 생성 시 제목, 레이블, 그리드 등 그래프 요소를 추가하여 가독성을 높일 수 있다.</t>
-  </si>
-  <si>
-    <t>백그라운드 스레드에서 주기적으로 데이터를 수집하고, matplotlib animation으로 실시간 차트를 갱신하는 시스템을 구축할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략에서 돌파선은 전일 고가와 저가의 차이를 이용하여 계산한다.</t>
-  </si>
-  <si>
-    <t>돌파선은 전일 고가 + (전일 고가 - 전일 저가) × K값으로 계산되며, 변동폭을 기반으로 합니다.</t>
-  </si>
-  <si>
-    <t>이동평균 크로스오버 전략에서 단기 이동평균선이 장기 이동평균선을 아래로 넘으면 매수 신호가 발생한다.</t>
-  </si>
-  <si>
-    <t>단기선이 장기선을 아래로 넘으면 데드 크로스로 매도 신호입니다. 위로 넘을 때가 매수 신호(골든 크로스)입니다.</t>
-  </si>
-  <si>
-    <t>다중 거래소 API를 통합하여 실시간 암호화폐 데이터를 수집하고 기술적 지표를 계산할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략과 이동평균 크로스오버 전략의 핵심 로직을 이해하고 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>백테스팅을 통해 전략의 성과를 분석하고 리스크 관리 방법을 적용할 수 있다.</t>
-  </si>
-  <si>
-    <t>여러 거래소(Upbit, Bithumb, Coinone)의 API를 통합하여 데이터를 정규화하고 통합하는 시스템을 구축할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략은 전일 변동폭을 기반으로 돌파선을 계산하고, 돌파 시 진입하여 손절/익절로 청산하는 추세 추종 전략이다.</t>
-  </si>
-  <si>
-    <t>백테스팅을 통해 전략의 수익률, 승률, 최대 낙폭, 샤프 비율 등을 분석하고, 포지션 크기 제한과 손절/익절 로직으로 리스크를 관리할 수 있다.</t>
-  </si>
-  <si>
-    <t>GitHub Copilot은 시장에서 가장 널리 사용되는 AI 코딩 도구이다.</t>
-  </si>
-  <si>
-    <t>GitHub Copilot은 Microsoft의 지원과 GitHub 생태계 통합으로 시장 리더십을 보유하고 있습니다.</t>
-  </si>
-  <si>
-    <t>AI 코딩 도구 시장은 2024년 기준 약 6조원 규모이며 지속적으로 성장하고 있다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. AI 코딩 도구 시장은 2024년 $6.15B 규모이며, 2034년까지 연평균 26.8% 성장이 예상됩니다.</t>
-  </si>
-  <si>
-    <t>AI 코딩 도구 시장의 주요 플레이어와 각 도구의 특징을 비교 분석할 수 있다.</t>
-  </si>
-  <si>
-    <t>각 AI 코딩 도구의 강점과 약점을 파악하여 프로젝트에 적합한 도구를 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>AI 코딩 도구의 시장 동향과 미래 전망을 이해할 수 있다.</t>
-  </si>
-  <si>
-    <t>GitHub Copilot, Cursor, Claude Code, CodeWhisperer 등 주요 AI 코딩 도구들은 각각 다른 강점을 가지고 있으며, 프로젝트 특성에 맞게 선택해야 한다.</t>
-  </si>
-  <si>
-    <t>AI 코딩 도구 시장은 빠르게 성장하고 있으며, 개발 생산성 향상과 코드 품질 개선에 큰 기여를 하고 있다.</t>
-  </si>
-  <si>
-    <t>AI 코딩 도구를 효과적으로 활용하려면 각 도구의 특징과 제한사항을 이해하고, 프로젝트 요구사항에 맞는 도구를 선택하는 것이 중요하다.</t>
-  </si>
-  <si>
-    <t>변동성 필터를 사용하면 가짜 돌파 신호를 줄일 수 있다.</t>
-  </si>
-  <si>
-    <t>전일 변동폭이 최근 평균 대비 큰 날만 거래하거나 ATR 상위 분위수를 사용하면 가짜 돌파를 필터링할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>트레일링 스탑을 사용하면 수익이 나는 포지션의 손절선을 동적으로 조정할 수 없다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 트레일링 스탑은 가격이 유리한 방향으로 움직일 때 손절선을 따라가며 수익을 보호합니다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략의 핵심 개념과 돌파선 계산 방법을 이해한다.</t>
-  </si>
-  <si>
-    <t>가짜 돌파를 줄이기 위한 필터링 기법(변동성, 거래량, 시간대 필터)을 적용할 수 있다.</t>
-  </si>
-  <si>
-    <t>리스크 관리 원칙(포지션 사이징, 손절/익절, 트레일링 스탑)을 전략에 통합할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략은 전일 변동폭(R)을 기반으로 돌파선을 계산하고, 돌파 시 추세 초입에 진입하는 추세 추종형 전략이다.</t>
-  </si>
-  <si>
-    <t>변동성 필터, 시간대 필터, 확인 캔들 조건 등을 적용하여 가짜 돌파 신호를 줄이고 승률을 향상시킬 수 있다.</t>
-  </si>
-  <si>
-    <t>포지션 사이징, 손절/익절 비율, 트레일링 스탑 등 리스크 관리 기법을 전략에 통합하여 안정적인 수익을 추구할 수 있다.</t>
-  </si>
-  <si>
-    <t>업비트 API는 JWT 토큰 기반 인증을 사용한다.</t>
-  </si>
-  <si>
-    <t>업비트의 Exchange API는 JWT 토큰을 사용하여 인증하며, access_key와 secret_key가 필요합니다.</t>
-  </si>
-  <si>
-    <t>업비트 API의 Rate Limit은 초당 10회 요청으로 제한되지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 업비트 API는 초당 10회 요청 제한이 있으며, 이를 초과하면 429 에러가 발생합니다.</t>
-  </si>
-  <si>
-    <t>업비트 API의 기본 구조와 REST API, WebSocket 연동 방식을 이해한다.</t>
-  </si>
-  <si>
-    <t>시장 데이터 조회 API와 계좌/주문 관리 API를 사용할 수 있다.</t>
-  </si>
-  <si>
-    <t>JWT 토큰 기반 인증을 구현하고 API 호출 시 오류 처리를 할 수 있다.</t>
-  </si>
-  <si>
-    <t>업비트 API는 Quotation API(공개)와 Exchange API(인증 필요)로 구분되며, 각각 시세 조회와 거래/계좌 관리를 담당한다.</t>
-  </si>
-  <si>
-    <t>JWT 토큰을 사용한 인증 방식으로 계좌 조회, 주문 생성/조회/취소 등의 거래 기능을 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>API Rate Limit을 준수하고 네트워크 오류에 대한 재시도 로직을 구현하여 안정적인 API 연동이 가능하다.</t>
-  </si>
-  <si>
-    <t>백테스팅은 과거 데이터를 사용하여 전략의 성과를 검증하는 방법이다.</t>
-  </si>
-  <si>
-    <t>백테스팅은 실제 거래 전에 과거 데이터로 전략을 테스트하여 수익률, 승률 등을 분석합니다.</t>
-  </si>
-  <si>
-    <t>과최적화(Overfitting)는 과거 데이터에만 잘 맞는 전략을 만드는 것을 의미하지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 과최적화된 전략은 과거 데이터에서는 좋은 성과를 보이지만, 미래 데이터에서는 성과가 떨어질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>백테스트 시스템의 핵심 구성 요소(데이터 로딩, 전략 실행, 성과 분석)를 이해한다.</t>
-  </si>
-  <si>
-    <t>데이터 전처리 및 품질 검증 방법을 학습한다.</t>
-  </si>
-  <si>
-    <t>성과 지표 계산 및 결과 시각화를 통해 전략을 평가할 수 있다.</t>
-  </si>
-  <si>
-    <t>백테스트 시스템은 데이터 로딩, 전략 실행, 성과 분석, 결과 시각화의 4가지 핵심 구성 요소로 이루어져 있다.</t>
-  </si>
-  <si>
-    <t>백테스트 시 거래 비용, 슬리피지, 과최적화 등을 고려하여 현실적인 성과를 평가해야 한다.</t>
-  </si>
-  <si>
-    <t>다양한 시장 상황에서 백테스트를 수행하고, 롤링 검증을 통해 전략의 안정성을 검증할 수 있다.</t>
-  </si>
-  <si>
-    <t>APScheduler를 사용하면 Python에서 정확한 시간 기반 작업 스케줄링이 가능하다.</t>
-  </si>
-  <si>
-    <t>APScheduler는 Cron 표현식과 Interval 트리거를 지원하여 정확한 시간에 작업을 실행할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>작업 간 의존성을 관리하려면 선행 작업의 완료 상태를 추적해야 하지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 의존성 관리를 위해 완료 상태를 파일에 저장하고, 의존 작업 실행 전에 확인하는 방식이 필요합니다.</t>
-  </si>
-  <si>
-    <t>APScheduler를 활용하여 정확한 시간 기반 작업 스케줄링 시스템을 구축할 수 있다.</t>
-  </si>
-  <si>
-    <t>우선순위 기반 작업 관리 시스템을 구현하여 중요한 작업을 우선 처리할 수 있다.</t>
-  </si>
-  <si>
-    <t>작업 간 의존성 관리 및 동적 스케줄 변경 기능을 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>APScheduler의 Cron과 Interval 트리거를 사용하여 매일 특정 시간, 주기적으로 실행되는 작업을 스케줄링할 수 있다.</t>
-  </si>
-  <si>
-    <t>PriorityQueue와 워커 스레드를 결합하여 우선순위 기반 작업 디스패처를 구현하고, 실패 시 지수 백오프로 재시도할 수 있다.</t>
-  </si>
-  <si>
-    <t>YAML 설정 파일을 감시하여 동적으로 스케줄을 변경하고, 작업 완료 상태 파일을 통해 의존성 관리를 할 수 있다.</t>
-  </si>
-  <si>
-    <t>텔레그램 봇은 BotFather를 통해 토큰을 발급받을 수 있다.</t>
-  </si>
-  <si>
-    <t>BotFather(@BotFather)는 텔레그램의 공식 봇으로, 새로운 봇을 생성하고 토큰을 발급받을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>인라인 키보드를 사용하면 사용자가 버튼을 클릭하여 명령을 실행할 수 없다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 인라인 키보드는 텔레그램 봇에서 버튼 형태의 인터페이스를 제공하여 사용자 경험을 향상시킵니다.</t>
-  </si>
-  <si>
-    <t>텔레그램 Bot API를 활용하여 자동매매 시스템의 알림 및 제어 인터페이스를 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>사용자 설정 관리 시스템을 구축하여 개인화된 알림 및 기능을 제공할 수 있다.</t>
-  </si>
-  <si>
-    <t>모듈화된 봇 아키텍처를 설계하여 확장 가능한 텔레그램 봇을 개발할 수 있다.</t>
-  </si>
-  <si>
-    <t>텔레그램 봇을 통해 거래 내역 조회, 수익률 분석, 시스템 상태 확인 등 자동매매 시스템의 원격 모니터링 및 제어가 가능하다.</t>
-  </si>
-  <si>
-    <t>사용자별 설정 파일을 관리하여 알림 유형, 거래 제어 권한 등을 개인화할 수 있다.</t>
-  </si>
-  <si>
-    <t>핸들러, 템플릿, 설정 관리자 등 모듈화된 구조로 봇을 설계하면 기능 추가와 유지보수가 용이하다.</t>
-  </si>
-  <si>
-    <t>API 인증 오류는 API 키 만료나 권한 부족으로 발생할 수 있다.</t>
-  </si>
-  <si>
-    <t>Invalid API key 오류는 키 만료, 권한 설정 오류, 키 형식 오류 등으로 발생합니다.</t>
-  </si>
-  <si>
-    <t>오류 패턴을 분류하면 발생 빈도와 심각도에 따라 대응 전략을 수립할 수 없다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 오류를 발생 빈도, 심각도, 해결 난이도, 예방 가능성으로 분류하여 효율적인 대응 체계를 구축할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>자동매매 시스템에서 발생할 수 있는 주요 오류 유형을 분석하고 분류할 수 있다.</t>
-  </si>
-  <si>
-    <t>각 오류 유형별 해결 방법과 예방 방안을 수립할 수 있다.</t>
-  </si>
-  <si>
-    <t>오류 패턴별 최적의 대응 전략을 설계할 수 있다.</t>
-  </si>
-  <si>
-    <t>API 인증 오류, 네트워크 연결 오류, 데이터 오류, 시스템 리소스 오류, 로직 오류 등 5가지 주요 오류 유형을 체계적으로 분석할 수 있다.</t>
-  </si>
-  <si>
-    <t>오류를 발생 빈도, 심각도, 해결 난이도, 예방 가능성으로 분류하여 우선순위를 정하고 대응 전략을 수립할 수 있다.</t>
-  </si>
-  <si>
-    <t>자동 재시도, 로깅, 모니터링, 입력 검증 등 예방적 접근을 통해 시스템의 복원력을 강화할 수 있다.</t>
-  </si>
-  <si>
-    <t>샤프 비율은 수익률을 변동성으로 나눈 값으로 리스크 조정 수익률을 나타낸다.</t>
-  </si>
-  <si>
-    <t>샤프 비율 = (수익률 - 무위험 수익률) / 변동성으로 계산되며, 높을수록 리스크 대비 수익이 좋습니다.</t>
-  </si>
-  <si>
-    <t>VaR(Value at Risk)는 특정 신뢰수준에서 예상되는 최대 손실을 의미하지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. VaR은 예를 들어 95% 신뢰수준에서 하루 최대 손실이 5%라는 식으로 표현됩니다.</t>
-  </si>
-  <si>
-    <t>pandas와 numpy를 활용하여 거래 데이터를 효율적으로 처리하고 분석할 수 있다.</t>
-  </si>
-  <si>
-    <t>수익률, 리스크, 거래 지표 등 다양한 성과 지표를 계산할 수 있다.</t>
-  </si>
-  <si>
-    <t>통계 분석과 시각화를 통해 거래 전략의 성과를 종합적으로 평가할 수 있다.</t>
-  </si>
-  <si>
-    <t>SQLite 데이터베이스에서 거래 데이터를 로드하고 pandas로 전처리하여 코인별, 전략별, 시간대별 세분화된 분석이 가능하다.</t>
-  </si>
-  <si>
-    <t>수익률 지표(총 수익률, 연환산 수익률), 리스크 지표(MDD, 샤프 비율, VaR), 거래 지표(승률, 프로핏 팩터) 등을 종합적으로 계산할 수 있다.</t>
-  </si>
-  <si>
-    <t>matplotlib과 seaborn을 활용한 시각화와 scipy를 활용한 통계 분석을 통해 HTML/JSON 리포트를 자동 생성할 수 있다.</t>
-  </si>
-  <si>
-    <t>파라미터 최적화는 백테스트를 통해 최적의 전략 파라미터를 찾는 과정이다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략의 K값, 이동평균 기간, 손절/익절 비율 등을 최적화하여 성과를 향상시킬 수 있습니다.</t>
-  </si>
-  <si>
-    <t>시장 상황별 최적화는 변동성 구간, 트렌드/사이드웨이스, 시간대별로 다른 파라미터를 사용하는 방법이다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 시장 상황에 따라 적응적으로 전략 파라미터를 조정하면 더 나은 성과를 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>전략 파라미터 최적화 방법을 이해하고 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>멀티 전략 조합 및 가중치 최적화 방법을 학습한다.</t>
-  </si>
-  <si>
-    <t>시장 상황별 적응형 전략 최적화 시스템을 설계할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 돌파 전략의 K값, 이동평균 기간, 손절/익절 비율 등을 그리드 서치나 베이지안 최적화로 찾아 성과를 향상시킬 수 있다.</t>
-  </si>
-  <si>
-    <t>여러 전략을 조합하고 가중치를 최적화하여 리스크를 분산시키고, 동적 전략 전환으로 시장 상황에 맞는 전략을 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>변동성 구간별, 트렌드/사이드웨이스별, 시간대별로 다른 파라미터를 사용하는 적응형 전략으로 안정적인 수익을 추구할 수 있다.</t>
-  </si>
-  <si>
-    <t>초보 투자자는 보수적인 리스크 관리와 간단한 인터페이스가 필요하다.</t>
-  </si>
-  <si>
-    <t>초보 투자자는 투자 경험이 적어 리스크를 최소화하고 사용하기 쉬운 인터페이스가 중요합니다.</t>
-  </si>
-  <si>
-    <t>모듈화된 아키텍처는 공통 모듈과 사용자별 모듈로 분리하여 확장성을 높인다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 공통 모듈(API, 데이터베이스)과 사용자별 모듈(전략, 인터페이스)을 분리하면 유지보수와 확장이 용이합니다.</t>
-  </si>
-  <si>
-    <t>다양한 사용자 유형별 요구사항을 분석하고 우선순위를 설정할 수 있다.</t>
-  </si>
-  <si>
-    <t>모듈화된 아키텍처를 설계하여 사용자별 맞춤형 기능을 제공할 수 있다.</t>
-  </si>
-  <si>
-    <t>설정 기반 커스터마이징과 기술 수준별 UI/UX를 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>초보/중급/고급 투자자별로 투자 경험, 금액, 리스크 성향, 기술적 지식이 다르므로 맞춤형 요구사항을 분석해야 한다.</t>
-  </si>
-  <si>
-    <t>공통 모듈과 사용자별 모듈로 분리된 모듈화된 구조로 설계하면 확장 가능하고 유지보수가 용이한 시스템을 구축할 수 있다.</t>
-  </si>
-  <si>
-    <t>설정 파일 기반 커스터마이징과 기술 수준별 UI/UX를 제공하여 다양한 사용자 유형에 맞는 자동매매 시스템을 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>Docker를 사용하면 자동매매 시스템을 컨테이너화하여 배포할 수 있다.</t>
-  </si>
-  <si>
-    <t>Docker를 사용하면 환경 의존성 문제를 해결하고 일관된 배포 환경을 구축할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>API 키는 환경 변수나 시크릿 관리 서비스를 통해 안전하게 관리해야 하지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. API 키를 코드에 하드코딩하지 않고 환경 변수나 AWS Secrets Manager 같은 서비스를 사용해야 합니다.</t>
-  </si>
-  <si>
-    <t>자동매매 시스템의 배포 요구사항을 분석하고 적합한 인프라를 선택할 수 있다.</t>
-  </si>
-  <si>
-    <t>Docker를 활용하여 컨테이너화된 시스템을 구축하고 배포할 수 있다.</t>
-  </si>
-  <si>
-    <t>클라우드 플랫폼에서 안전하고 안정적인 운영 환경을 구축할 수 있다.</t>
-  </si>
-  <si>
-    <t>24시간 안정적인 운영을 위해 클라우드 플랫폼(AWS, GCP, Azure)을 선택하고, Docker로 컨테이너화하여 배포할 수 있다.</t>
-  </si>
-  <si>
-    <t>API 키는 환경 변수나 시크릿 관리 서비스를 통해 안전하게 관리하고, 방화벽과 접근 권한 관리를 통해 보안을 강화해야 한다.</t>
-  </si>
-  <si>
-    <t>모니터링, 로그 관리, 자동 백업 시스템을 구축하여 시스템 안정성과 장애 대응 능력을 향상시킬 수 있다.</t>
-  </si>
-  <si>
-    <t>MCP(Model Context Protocol)는 AI 도구와 애플리케이션 간의 표준화된 통신 프로토콜이다.</t>
-  </si>
-  <si>
-    <t>MCP는 AI 도구들이 컨텍스트를 공유하고 상호작용할 수 있게 해주는 프로토콜입니다.</t>
-  </si>
-  <si>
-    <t>Browser MCP를 사용하면 웹 자동화 작업을 수행할 수 없다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. Browser MCP를 통해 웹 페이지 탐색, 데이터 수집, 자동화 작업 등을 수행할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>MCP의 개념과 주요 장점을 이해하고 활용 방법을 학습한다.</t>
-  </si>
-  <si>
-    <t>다양한 MCP 도구(Figma, Notion, Selenium, Browser)를 자동매매 시스템 개발에 활용할 수 있다.</t>
-  </si>
-  <si>
-    <t>MCP를 활용한 개발 워크플로우를 설계하고 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>MCP는 AI 도구와 애플리케이션 간의 표준화된 통신 프로토콜로, 컨텍스트 공유와 상호작용을 용이하게 해준다.</t>
-  </si>
-  <si>
-    <t>Figma MCP로 UI/UX 디자인, Notion MCP로 문서 관리, Browser MCP로 웹 자동화 등을 자동매매 시스템 개발에 활용할 수 있다.</t>
-  </si>
-  <si>
-    <t>MCP를 활용하면 개발 워크플로우를 자동화하고 생산성을 크게 향상시킬 수 있다.</t>
-  </si>
-  <si>
-    <t>포트폴리오 전략은 여러 코인에 분산 투자하여 리스크를 줄이는 방법이다.</t>
-  </si>
-  <si>
-    <t>포트폴리오 전략은 상관관계가 낮은 여러 자산에 분산 투자하여 리스크를 분산시킵니다.</t>
-  </si>
-  <si>
-    <t>적응형 전략 시스템은 시장 상황(상승장/하락장/횡보장)에 따라 다른 전략을 자동으로 적용하지 않는다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 시장 상황을 판단하는 지표를 사용하여 적합한 전략을 자동으로 선택하고 전환합니다.</t>
-  </si>
-  <si>
-    <t>포트폴리오 전략을 통해 리스크를 분산시키면서 수익을 극대화하는 방법을 이해한다.</t>
-  </si>
-  <si>
-    <t>자금 관리 방법(켈리 공식, 고정 비율 등)을 학습하고 적용할 수 있다.</t>
-  </si>
-  <si>
-    <t>시장 상황별 적응형 전략 시스템을 설계하고 구현할 수 있다.</t>
-  </si>
-  <si>
-    <t>상관관계가 낮은 여러 코인에 분산 투자하고, 전략별 가중치를 최적화하여 포트폴리오 리스크를 관리할 수 있다.</t>
-  </si>
-  <si>
-    <t>켈리 공식, 고정 비율, 변동성 기반 포지션 사이징 등 자금 관리 방법을 적용하여 손실을 최소화하고 수익을 극대화할 수 있다.</t>
-  </si>
-  <si>
-    <t>시장 상황 판단 지표(이동평균, RSI, 변동성 등)를 사용하여 상승장/하락장/횡보장에 맞는 전략을 자동으로 선택하고 전환할 수 있다.</t>
-  </si>
-  <si>
-    <t>다중 거래소 전략은 여러 거래소에서 동시에 거래하여 아비트라지 기회를 포착한다.</t>
-  </si>
-  <si>
-    <t>거래소 간 가격 차이를 이용한 아비트라지나 유동성 확보를 위해 여러 거래소를 활용할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>완전 자동화 시스템은 24시간 365일 사람의 개입 필요로 자동으로 거래를 실행한다.</t>
-  </si>
-  <si>
-    <t>정답은 O입니다. 모니터링, 알림, 자동 복구, 리스크 관리 등 모든 기능이 자동화된 시스템을 구축할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>자동매매 시스템의 확장 전략(다중 거래소, 고급 전략, 완전 자동화)을 이해한다.</t>
-  </si>
-  <si>
-    <t>머신러닝과 딥러닝을 활용한 예측 모델과 복합 전략을 설계할 수 있다.</t>
-  </si>
-  <si>
-    <t>24시간 365일 완전 자동화된 시스템을 구축하고 운영할 수 있다.</t>
-  </si>
-  <si>
-    <t>다중 거래소 연동을 통해 아비트라지 기회를 포착하고, 유동성을 확보하며, 거래소 장애 시 대체 경로를 확보할 수 있다.</t>
-  </si>
-  <si>
-    <t>머신러닝(LSTM, Transformer)과 딥러닝을 활용한 가격 예측 모델과 여러 전략을 조합한 복합 전략으로 수익을 극대화할 수 있다.</t>
-  </si>
-  <si>
-    <t>모니터링, 알림, 자동 복구, 리스크 관리가 완전히 자동화된 24시간 365일 운영 시스템을 구축하여 지속적인 수익 창출이 가능하다.</t>
-  </si>
-  <si>
-    <t>CoinGecko API는 여러 통화로 가격을 조회할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib를 활용한 GUI 구현으로 사용자가 모니터링을 시작/중지하고 실시간 상태를 확인할 수 있는 인터페이스를 제공할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 거래소(Upbit 외)의 API를 통합하여 데이터를 정규화하고 통합하는 시스템을 구축할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib 활용한 시각화와 scipy를 활용한 통계 분석을 통해 HTML/JSON 리포트를 자동 생성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝과 딥러닝을 활용한 가격 예측 모델과 여러 전략을 조합한 복합 전략으로 수익을 극대화할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동성 기반 포지션 사이징 등 자금 관리 방법을 적용하여 손실을 최소화하고 수익을 극대화할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자금 관리 방법을 학습하고 적용할 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +590,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -611,12 +626,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -919,7 +935,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -987,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,12 +1011,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1011,15 +1027,15 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
+      <c r="B12" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1027,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1057,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1065,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1101,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1109,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1117,12 +1133,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1133,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1141,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1149,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1179,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1187,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1201,13 +1217,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1223,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,12 +1255,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1255,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1263,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1271,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1309,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1323,13 +1339,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1345,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1353,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1361,12 +1377,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1377,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1385,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1393,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1423,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1431,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1445,13 +1461,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1467,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1475,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1483,12 +1499,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1499,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1507,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1515,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1545,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1553,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1567,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1589,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1597,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1605,12 +1621,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1621,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1629,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1637,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1675,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1689,13 +1705,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1711,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1719,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1727,12 +1743,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1743,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1751,15 +1767,15 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="B13" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1789,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1797,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1811,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1833,15 +1849,15 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>159</v>
+      <c r="B7" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1849,12 +1865,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1865,15 +1881,15 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>162</v>
+      <c r="B12" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1881,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1891,6 +1907,129 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1919,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1933,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1955,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1963,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1971,12 +2110,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1987,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1995,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2003,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2151,618 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="116.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2041,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2055,13 +2805,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2077,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2085,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2093,12 +2843,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2109,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2117,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2125,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2134,135 +2884,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="116.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2286,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2300,13 +2927,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2322,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2330,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2338,12 +2965,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2354,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2362,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2370,617 +2997,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
